--- a/ChatGPTProjekt/03_Risikoliste/03_Risikoliste.xlsx
+++ b/ChatGPTProjekt/03_Risikoliste/03_Risikoliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Desktop/Bachelorprojekte/ChatGPTProjekt/03_Risikoliste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonij\Desktop\BAProjekte\ChatGPTProjekt\03_Risikoliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE53E578-6173-8E4A-812A-37671098E41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF3D91-A952-4E34-B481-DB57C5F16F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8AA37867-2096-4847-8E84-26B6891DCBF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8AA37867-2096-4847-8E84-26B6891DCBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Historie" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
   <si>
     <t>Datum</t>
   </si>
@@ -239,217 +239,157 @@
     <t>Herr Schneider</t>
   </si>
   <si>
-    <t>T01</t>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>TE01</t>
-  </si>
-  <si>
-    <t>TE02</t>
-  </si>
-  <si>
-    <t>M01</t>
-  </si>
-  <si>
-    <t>K01</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>MA01</t>
-  </si>
-  <si>
-    <t>PL01</t>
-  </si>
-  <si>
-    <t>Teammitglieder werden krank oder fallen 
-aus, wodurch Verzögerungen entstehen.</t>
-  </si>
-  <si>
-    <t>Unstimmigkeiten oder Konflikte im 
-Team führen zu ineffizienter Zusammenarbeit.</t>
-  </si>
-  <si>
-    <t>Technische Schwierigkeiten bei der 
-Implementierung der RMI-Kommunikation.</t>
-  </si>
-  <si>
-    <t>Unerwartete Bugs oder 
-Performance-Probleme bei JavaFX.</t>
-  </si>
-  <si>
-    <t>Unklare oder sich ändernde Anforderungen 
-führen zu Mehraufwand.</t>
-  </si>
-  <si>
-    <t>Der Kunde kann nicht regelmäßig Feedback 
-geben, wodurch Verzögerungen entstehen.</t>
-  </si>
-  <si>
-    <t>Schwierigkeiten bei der Umsetzung der KI 
-für den Einzelspielermodus.</t>
-  </si>
-  <si>
-    <t>Das Spiel erfüllt nicht die Erwartungen der 
-Nutzer in Bezug auf Spielbarkeit und Design.</t>
-  </si>
-  <si>
-    <t>Schlechte Projektorganisation und 
-unzureichendes Projektmanagement führen zu Verzögerungen.</t>
-  </si>
-  <si>
-    <t>Unrealistische Zeitplanung führt zu nicht 
-eingehaltenen Deadlines.</t>
-  </si>
-  <si>
     <t>Unerwünscht</t>
   </si>
   <si>
-    <t>Katastrophal</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID T01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID T02</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID TE01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID TE02</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID M01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID K01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID F01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID P01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID MA01</t>
-  </si>
-  <si>
-    <t>Maßnahmen für Risiko mit ID PL01</t>
-  </si>
-  <si>
     <t>lindern</t>
   </si>
   <si>
-    <t>Regelmäßige Gesundheits-Check-ins und flexible 
-Arbeitszeiten zur Reduzierung von Krankheitsausfällen.</t>
-  </si>
-  <si>
-    <t>Ein externer Berater wird bereitgestellt, um bei 
-Engpässen im Team kurzfristig auszuhelfen.</t>
-  </si>
-  <si>
-    <t>Teambuilding-Aktivitäten und regelmäßige 
-Feedback-Runden zur Verbesserung der Teamdynamik.</t>
-  </si>
-  <si>
-    <t>Mediationsgespräche durch einen externen Coach 
-bei auftretenden Konflikten.</t>
-  </si>
-  <si>
-    <t>Zusätzliche Schulungen zur RMI-Kommunikation 
-für das Entwicklerteam.</t>
-  </si>
-  <si>
-    <t>Externe Expertenberatung zur Unterstützung bei 
-technischen Schwierigkeiten.</t>
-  </si>
-  <si>
-    <t>Intensive Testphasen und Code-Reviews zur 
-frühzeitigen Erkennung und Behebung von Bugs.</t>
-  </si>
-  <si>
-    <t>Einsatz bewährter JavaFX-Bibliotheken und 
-Frameworks.</t>
-  </si>
-  <si>
-    <t>Detaillierte Dokumentation und klare 
-Kommunikation der Anforderungen.</t>
-  </si>
-  <si>
-    <t>Regelmäßige Abstimmungsmeetings mit dem 
-Kunden zur Klärung der Anforderungen.</t>
-  </si>
-  <si>
-    <t>Festlegen regelmäßiger Feedback-Termine mit 
-dem Kunden.</t>
-  </si>
-  <si>
-    <t>Einführung eines Online-Feedback-Systems zur 
-schnellen Rückmeldung durch den Kunden.</t>
-  </si>
-  <si>
-    <t>Einsatz von Bibliotheken und Frameworks zur 
-Unterstützung der KI-Entwicklung.</t>
-  </si>
-  <si>
-    <t>Zusammenarbeit mit einem externen KI-Experten 
-zur Sicherstellung der Umsetzbarkeit.</t>
-  </si>
-  <si>
-    <t>Durchführung von Nutzerstudien und 
-Usability-Tests zur Sicherstellung der Spielbarkeit und des Designs.</t>
-  </si>
-  <si>
-    <t>Kontinuierliches Einholen von Feedback während 
-der Entwicklung.</t>
-  </si>
-  <si>
-    <t>Einführung eines Projektmanagement-Tools zur 
-besseren Organisation und Nachverfolgung von Aufgaben.</t>
-  </si>
-  <si>
-    <t>Regelmäßige Projektbesprechungen zur 
-Sicherstellung der Einhaltung von Meilensteinen und Deadlines.</t>
-  </si>
-  <si>
-    <t>Erstellen eines realistischen und detaillierten 
-Zeitplans mit Pufferzeiten.</t>
-  </si>
-  <si>
-    <t>Regelmäßige Überprüfung und Anpassung des 
-Zeitplans basierend auf aktuellen Entwicklungen und Rückmeldungen.</t>
-  </si>
-  <si>
     <t>Sofort</t>
   </si>
   <si>
-    <t>Krankheitsfall im Team</t>
-  </si>
-  <si>
-    <t>Auftreten eines Konflikts</t>
-  </si>
-  <si>
-    <t>Auftreten technischer Probleme</t>
-  </si>
-  <si>
-    <t>Unklare Anforderungen</t>
-  </si>
-  <si>
-    <t>Verzögerung beim Feedback</t>
-  </si>
-  <si>
-    <t>Auftreten von Schwierigkeiten</t>
-  </si>
-  <si>
-    <t>Verzögrerungen im Zeitplan</t>
+    <t>Ein Teammitglied wird krank und fällt für mehrere 
+Wochen aus, was zu Verzögerungen führt.</t>
+  </si>
+  <si>
+    <t>Probleme mit der Java RMI Kommunikation, die 
+umfangreiche Fehlersuche und Korrektur erfordert.</t>
+  </si>
+  <si>
+    <t>Unzureichende Definition der Anforderungen, die zu 
+Missverständnissen und Nacharbeiten führt.</t>
+  </si>
+  <si>
+    <t>Kunde ändert Anforderungen während der Entwicklung, 
+was zusätzliche Arbeit verursacht.</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten bei der Implementierung der 
+KI-Gegner.</t>
+  </si>
+  <si>
+    <t>Unzureichende Kommunikation im Team, die zu 
+Verzögerungen und Fehlern führt</t>
+  </si>
+  <si>
+    <t>Zeitplan ist zu optimistisch und es kommt zu 
+Verzögerungen in der Fertigstellung.</t>
+  </si>
+  <si>
+    <t>Herr Becker</t>
+  </si>
+  <si>
+    <t>Spiel erfüllt nicht die Performance Anforderungen und läuft nicht flüssig auf älteren Geräten</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 1</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 2</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 3</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 4</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 5</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 6</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 7</t>
+  </si>
+  <si>
+    <t>Maßnahmen für Risiko mit ID 8</t>
+  </si>
+  <si>
+    <t>Einbindung eines KI-Spezialisten, um komplexe Probleme schneller zu lösen.</t>
+  </si>
+  <si>
+    <t>Einführung von regelmäßigen Team-Meetings und Einsatz von Kollaborationstools wie Slack oder Asana.</t>
+  </si>
+  <si>
+    <t>Durchführung von Team-Building-Maßnahmen zur Verbesserung der internen Kommunikation.</t>
+  </si>
+  <si>
+    <t>Erstellung eines realistischen Zeitplans mit Pufferzeiten und regelmäßigen Überprüfungen des Fortschritts.</t>
+  </si>
+  <si>
+    <t>Einstellung zusätzlicher Entwickler, um Engpässe im Zeitplan abzufedern.</t>
+  </si>
+  <si>
+    <t>Regelmäßige Gesundheitschecks und Förderung von 
+Gesundheitsprogrammen zur Prävention von Krankheiten.</t>
+  </si>
+  <si>
+    <t>Einsatz von temporären Freelancern zur Abdeckung 
+von Ausfällen.</t>
+  </si>
+  <si>
+    <t>Durchführung von intensiven Testphasen für die 
+RMI-Kommunikation in frühen Projektstadien.</t>
+  </si>
+  <si>
+    <t>Bereitstellung eines Experten für RMI-Kommunikation zur 
+schnellen Lösung potenzieller Probleme.</t>
+  </si>
+  <si>
+    <t>Durchführung von detaillierten Anforderungsworkshops mit 
+dem Kunden zu Beginn des Projekts.</t>
+  </si>
+  <si>
+    <t>Regelmäßige Überprüfung und Anpassung der 
+Anforderungen durch ein agiles Change-Management.</t>
+  </si>
+  <si>
+    <t>Einführung eines strikten Änderungsmanagements, um 
+Anforderungenänderungen zu kontrollieren.</t>
+  </si>
+  <si>
+    <t>Zusätzliche Ressourcen bereitstellen, um Änderungen 
+schneller umsetzen zu können.</t>
+  </si>
+  <si>
+    <t>Verwendung von bereits existierenden KI-Frameworks, um 
+die Entwicklungszeit zu verkürzen.</t>
+  </si>
+  <si>
+    <t>Durchführung von Performance-Tests auf verschiedenen 
+Gerätetypen und Optimierung des Codes.</t>
+  </si>
+  <si>
+    <t>Bereitstellung von Mindestanforderungen für Geräte und 
+Empfehlung von Upgrades an die Nutzer.</t>
+  </si>
+  <si>
+    <t>Krankheit eines Mitglieds</t>
+  </si>
+  <si>
+    <t>Auftreten von 
+Kommunikationsproblemen</t>
+  </si>
+  <si>
+    <t>Anforderungenänderungen</t>
+  </si>
+  <si>
+    <t>Schwierigkeiten bei der Implementierung</t>
+  </si>
+  <si>
+    <t>Kommunikationsprobleme</t>
+  </si>
+  <si>
+    <t>Verzögerung im Zeitplan</t>
+  </si>
+  <si>
+    <t>Änderung der 
+Anforderungen</t>
+  </si>
+  <si>
+    <t>Negative 
+Nutzerberichte</t>
   </si>
 </sst>
 </file>
@@ -546,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -607,9 +547,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -637,11 +574,26 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,14 +1598,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>45460</v>
       </c>
@@ -1675,22 +1627,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1709,19 +1661,19 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="14" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1761,7 +1713,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1776,67 +1728,48 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="10">
         <v>10000</v>
       </c>
       <c r="G4" s="10">
         <f>E4*F4</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="8">
-        <v>45459</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="10">
-        <f>E5*F5</f>
-        <v>1000</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1851,67 +1784,48 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="9">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="F7" s="10">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G7" s="10">
         <f>E7*F7</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45459</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="F8" s="10">
-        <v>8000</v>
-      </c>
-      <c r="G8" s="10">
-        <f>E8*F8</f>
-        <v>2800</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1926,37 +1840,37 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="9">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="10">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="10">
         <f>E10*F10</f>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1967,7 +1881,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1982,15 +1896,15 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>60</v>
@@ -1999,11 +1913,11 @@
         <v>0.3</v>
       </c>
       <c r="F13" s="10">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="10">
         <f>E13*F13</f>
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>33</v>
@@ -2012,7 +1926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2023,7 +1937,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2038,15 +1952,15 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>79</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C16" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>61</v>
@@ -2055,20 +1969,20 @@
         <v>0.2</v>
       </c>
       <c r="F16" s="10">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="10">
         <f>E16*F16</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2079,7 +1993,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2094,37 +2008,37 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>80</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="8">
-        <v>45459</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>45463</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="10">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="10">
         <f>E19*F19</f>
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2135,7 +2049,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2150,39 +2064,39 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="C22" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="9">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F22" s="10">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="10">
         <f>E22*F22</f>
-        <v>3750</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="22"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>
       <c r="E23" s="9"/>
@@ -2191,7 +2105,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2206,28 +2120,28 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="C25" s="8">
-        <v>45459</v>
+        <v>45463</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="10">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="G25" s="10">
         <f>E25*F25</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>33</v>
@@ -2236,9 +2150,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="22"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
@@ -2247,38 +2161,38 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2303,24 +2217,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.83203125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2352,7 +2266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2368,7 +2282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2384,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2406,21 +2320,21 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2449,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -2460,9 +2374,9 @@
       <c r="H2" s="16"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2473,15 +2387,15 @@
       <c r="H3" s="21"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>96</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>60</v>
@@ -2493,25 +2407,25 @@
         <v>0.15</v>
       </c>
       <c r="G4" s="16">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H5" si="0">F4*G4</f>
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>97</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>60</v>
@@ -2523,17 +2437,17 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="16">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2544,9 +2458,9 @@
       <c r="H6" s="16"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2557,18 +2471,18 @@
       <c r="H7" s="21"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>98</v>
+      <c r="B8" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -2577,28 +2491,28 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="16">
-        <v>2500</v>
-      </c>
-      <c r="H8" s="33">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="16">
         <f t="shared" ref="H8:H9" si="1">F8*G8</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
@@ -2607,17 +2521,17 @@
         <v>0.05</v>
       </c>
       <c r="G9" s="16">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2627,9 +2541,9 @@
       <c r="G10" s="16"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2640,67 +2554,67 @@
       <c r="H11" s="21"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="9">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="16">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" ref="H12:H13" si="2">F12*G12</f>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="9">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G13" s="16">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2711,9 +2625,9 @@
       <c r="H14" s="16"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -2724,18 +2638,18 @@
       <c r="H15" s="21"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
@@ -2744,47 +2658,47 @@
         <v>0.2</v>
       </c>
       <c r="G16" s="16">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" ref="H16:H17" si="3">F16*G16</f>
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>116</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F17" s="9">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="16">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2795,9 +2709,9 @@
       <c r="H18" s="16"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -2808,67 +2722,67 @@
       <c r="H19" s="21"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G20" s="16">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ref="H20:H21" si="4">F20*G20</f>
-        <v>500</v>
+        <v>2250</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>120</v>
+      <c r="C21" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="9">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G21" s="16">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2879,9 +2793,9 @@
       <c r="H22" s="16"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2892,48 +2806,48 @@
       <c r="H23" s="21"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="9">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G24" s="16">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" ref="H24:H25" si="5">F24*G24</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>29</v>
@@ -2942,17 +2856,17 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="16">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2963,351 +2877,215 @@
       <c r="H26" s="16"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>116</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="G28" s="27">
+      <c r="F28" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="26">
         <v>5000</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" ref="H28:H29" si="6">F28*G28</f>
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="27">
+      <c r="F29" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="G29" s="26">
         <v>3000</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="32" t="s">
+      <c r="B32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>0.1</v>
       </c>
-      <c r="G32" s="27">
-        <v>10000</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="G32" s="26">
+        <v>20000</v>
+      </c>
+      <c r="H32" s="16">
         <f t="shared" ref="H32" si="7">F32*G32</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="26">
+        <v>29</v>
+      </c>
+      <c r="F33" s="25">
         <v>0.05</v>
       </c>
-      <c r="G33" s="27">
-        <v>5000</v>
+      <c r="G33" s="26">
+        <v>15000</v>
       </c>
       <c r="H33" s="16">
         <f t="shared" ref="H33" si="8">F33*G33</f>
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="23"/>
-    </row>
-    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="G36" s="27">
-        <v>7500</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" ref="H36" si="9">F36*G36</f>
-        <v>1125</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="G37" s="27">
-        <v>5000</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" ref="H37" si="10">F37*G37</f>
-        <v>500</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="29"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G40" s="27">
-        <v>5000</v>
-      </c>
-      <c r="H40" s="33">
-        <f t="shared" ref="H40" si="11">F40*G40</f>
-        <v>1000</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="27">
-        <v>3000</v>
-      </c>
-      <c r="H41" s="16">
-        <f t="shared" ref="H41" si="12">F41*G41</f>
-        <v>300</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="29"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6 A8:A10 A12:A14 A16:A18 A20:A22 A24:A26 A28:A29 A32:A33 A36:A37 A40:A41" xr:uid="{ED41DB65-ADD7-AF43-B104-ACF5EFF8B705}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6 A8:A10 A12:A14 A16:A18 A20:A22 A24:A26 A28:A29 A32:A33" xr:uid="{ED41DB65-ADD7-AF43-B104-ACF5EFF8B705}">
       <formula1>"verhindern,lindern,übertragen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I22 I4:I6 I8:I10 I12:I14 I16:I18 I24:I26 I28:I29 I32:I33 I36:I37 I40:I41" xr:uid="{D28A09F5-752C-8645-B910-1496E4E5DC84}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:I22 I4:I6 I8:I10 I12:I14 I16:I18 I24:I26 I28:I29 I32:I33" xr:uid="{D28A09F5-752C-8645-B910-1496E4E5DC84}">
       <formula1>"Tolerierbar,Unerwünscht,Kritisch,Katastrophal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6 E8:E10 E12:E14 E16:E18 E20:E22 E24:E26 E28:E29 E32:E33 E36:E37 E40:E41" xr:uid="{2E868724-E329-B94C-9913-2A06ED351F5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6 E8:E10 E12:E14 E16:E18 E20:E22 E24:E26 E28:E29 E32:E33" xr:uid="{2E868724-E329-B94C-9913-2A06ED351F5D}">
       <formula1>"geplant,aktiv,beendet"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3328,24 +3106,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="32.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -3377,7 +3155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3385,7 +3163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
